--- a/premium/src/main/resources/child_ss_premium.xlsx
+++ b/premium/src/main/resources/child_ss_premium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/superstar/superstar/premium/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF228D-1A2E-2343-8F6F-A4E0FC50EDA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E68EA35-01B5-E440-9967-8DDF8D3E62C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13660" yWindow="740" windowWidth="14660" windowHeight="17240" xr2:uid="{F65098A0-B808-204D-B599-C9347E1058E3}"/>
+    <workbookView xWindow="13660" yWindow="740" windowWidth="14660" windowHeight="17220" xr2:uid="{F65098A0-B808-204D-B599-C9347E1058E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,6 +69,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -86,7 +92,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -125,7 +131,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,31 +493,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>3059.6396529849299</v>
+        <v>3060</v>
       </c>
       <c r="C2" s="3">
-        <v>3824.4051388155199</v>
+        <v>3824</v>
       </c>
       <c r="D2" s="3">
-        <v>4130.6075649918703</v>
+        <v>4131</v>
       </c>
       <c r="E2" s="3">
-        <v>4832.7892810590101</v>
+        <v>4833</v>
       </c>
       <c r="F2" s="3">
-        <v>5340.1648331041097</v>
+        <v>5340</v>
       </c>
       <c r="G2" s="3">
-        <v>6048.44750736076</v>
+        <v>6048</v>
       </c>
       <c r="H2" s="3">
-        <v>6752.6629116260201</v>
+        <v>6753</v>
       </c>
       <c r="I2" s="3">
-        <v>7403.74678548872</v>
+        <v>7404</v>
       </c>
       <c r="J2" s="3">
-        <v>9514.1315969401894</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -519,31 +525,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>3830.2737182522001</v>
+        <v>3830</v>
       </c>
       <c r="C3" s="3">
-        <v>4787.66134334248</v>
+        <v>4788</v>
       </c>
       <c r="D3" s="3">
-        <v>5170.9872373915196</v>
+        <v>5171</v>
       </c>
       <c r="E3" s="3">
-        <v>6050.0280649168499</v>
+        <v>6050</v>
       </c>
       <c r="F3" s="3">
-        <v>6685.1967326997101</v>
+        <v>6685</v>
       </c>
       <c r="G3" s="3">
-        <v>7571.87517198977</v>
+        <v>7572</v>
       </c>
       <c r="H3" s="3">
-        <v>8453.4619145050401</v>
+        <v>8453</v>
       </c>
       <c r="I3" s="3">
-        <v>9268.5348424562908</v>
+        <v>9269</v>
       </c>
       <c r="J3" s="3">
-        <v>11910.4640875604</v>
+        <v>11910</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -551,31 +557,31 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>4484.5011703182099</v>
+        <v>4485</v>
       </c>
       <c r="C4" s="3">
-        <v>5605.4147762327002</v>
+        <v>5605</v>
       </c>
       <c r="D4" s="3">
-        <v>6054.2144043857998</v>
+        <v>6054</v>
       </c>
       <c r="E4" s="3">
-        <v>7083.3992380988502</v>
+        <v>7083</v>
       </c>
       <c r="F4" s="3">
-        <v>7827.0574838394296</v>
+        <v>7827</v>
       </c>
       <c r="G4" s="3">
-        <v>8865.1844667085898</v>
+        <v>8865</v>
       </c>
       <c r="H4" s="3">
-        <v>9897.3500687927099</v>
+        <v>9897</v>
       </c>
       <c r="I4" s="3">
-        <v>10851.641006767801</v>
+        <v>10852</v>
       </c>
       <c r="J4" s="3">
-        <v>13944.823286433601</v>
+        <v>13945</v>
       </c>
     </row>
   </sheetData>
